--- a/public/uploads/GPEXE-Import.xlsx
+++ b/public/uploads/GPEXE-Import.xlsx
@@ -59,6 +59,19 @@
             <u val="none"/>
           </rPr>
           <t xml:space="preserve">
+Champ 'document.name' mis à jour.</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">
 Version trouvée.</t>
         </r>
         <r>
@@ -72,7 +85,72 @@
             <u val="none"/>
           </rPr>
           <t xml:space="preserve">
-Champ 'version.date' mis à jour.</t>
+Champ 'version.isRequired' mis à jour.</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">
+Erreur en écrivant le champ 'version.writer'.</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">
+Champ 'version.checker' mis à jour.</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">
+Erreur en écrivant le champ 'version.approver'.</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">
+Erreur en écrivant le champ 'status.value'.</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">
+Champ 'version.checkbox_o' mis à jour.</t>
         </r>
       </text>
     </comment>
@@ -115,6 +193,19 @@
             <u val="none"/>
           </rPr>
           <t xml:space="preserve">
+Champ 'document.name' mis à jour.</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">
 Version trouvée.</t>
         </r>
         <r>
@@ -128,7 +219,72 @@
             <u val="none"/>
           </rPr>
           <t xml:space="preserve">
-Champ 'version.date' mis à jour.</t>
+Champ 'version.isRequired' mis à jour.</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">
+Champ 'version.writer' mis à jour.</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">
+Champ 'version.checker' mis à jour.</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">
+Champ 'version.approver' mis à jour.</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">
+Champ 'status.value' mis à jour.</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">
+Champ 'version.checkbox_o' mis à jour.</t>
         </r>
       </text>
     </comment>
@@ -171,6 +327,19 @@
             <u val="none"/>
           </rPr>
           <t xml:space="preserve">
+Champ 'document.name' mis à jour.</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">
 Version trouvée.</t>
         </r>
         <r>
@@ -184,7 +353,128 @@
             <u val="none"/>
           </rPr>
           <t xml:space="preserve">
-Champ 'version.date' mis à jour.</t>
+Champ 'version.isRequired' mis à jour.</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">
+Erreur en écrivant le champ 'version.writer'.</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">
+Champ 'version.checker' mis à jour.</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">
+Champ 'version.approver' mis à jour.</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">
+Champ 'status.value' mis à jour.</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">
+Champ 'version.checkbox_o' mis à jour.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">
+Série trouvée.</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">
+Création d'un nouveau document.</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">
+Erreur en écrivant le champ 'document.reference'.</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">
+Ligne exclue : création du document annulée.</t>
         </r>
       </text>
     </comment>
@@ -193,7 +483,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
   <si>
     <t>Serie name</t>
   </si>
@@ -210,6 +500,24 @@
     <t>Date</t>
   </si>
   <si>
+    <t>Is required</t>
+  </si>
+  <si>
+    <t>Writer</t>
+  </si>
+  <si>
+    <t>Checker</t>
+  </si>
+  <si>
+    <t>Approver</t>
+  </si>
+  <si>
+    <t>Status value</t>
+  </si>
+  <si>
+    <t>Checkbox o</t>
+  </si>
+  <si>
     <t>Vannes</t>
   </si>
   <si>
@@ -219,13 +527,49 @@
     <t>01</t>
   </si>
   <si>
-    <t>PID Test</t>
+    <t>PID Test 1</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>Syctom</t>
+  </si>
+  <si>
+    <t>no</t>
   </si>
   <si>
     <t>IP-14-064-IN-A-PID-A0-0002</t>
   </si>
   <si>
+    <t>PID Test 2</t>
+  </si>
+  <si>
+    <t>Tania</t>
+  </si>
+  <si>
+    <t>Mulot</t>
+  </si>
+  <si>
+    <t>AVS</t>
+  </si>
+  <si>
     <t>IP-14-064-IN-A-PID-A0-0003</t>
+  </si>
+  <si>
+    <t>PID Test 3</t>
+  </si>
+  <si>
+    <t>INF</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-A-PID-A0-0004</t>
+  </si>
+  <si>
+    <t>PID Test 4</t>
   </si>
 </sst>
 </file>
@@ -244,7 +588,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,7 +600,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFE591"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFCCFF91"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9191"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -267,20 +623,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="20" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="20" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="14" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="14" fillId="3" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="16" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="4" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="14" fillId="4" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -585,154 +971,264 @@
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A4" sqref="A4:Z4"/>
+      <selection activeCell="A5" sqref="A5:Z5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="30.7109375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="30.7109375" customWidth="true" style="0"/>
-    <col min="4" max="4" width="22.140625" customWidth="true" style="0"/>
-    <col min="5" max="5" width="13.42578125" customWidth="true" style="0"/>
+    <col min="1" max="1" width="14.140625" customWidth="true" style="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="true" style="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="true" style="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="true" style="1"/>
+    <col min="5" max="5" width="13.42578125" customWidth="true" style="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="true" style="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="true" style="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="true" style="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="true" style="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="true" style="1"/>
+    <col min="11" max="11" width="20.7109375" customWidth="true" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="4">
-        <v>43952</v>
-      </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="5">
+        <v>44256</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4">
-        <v>44024</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="9">
+        <v>44013</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="10"/>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="4">
-        <v>44042</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="5">
+        <v>43983</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
     </row>
     <row r="5" spans="1:26">
-      <c r="A5"/>
+      <c r="A5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="13">
+        <v>43983</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="1"/>
     </row>
     <row r="13" spans="1:26">
-      <c r="D13" s="1"/>
+      <c r="D13" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/public/uploads/GPEXE-Import.xlsx
+++ b/public/uploads/GPEXE-Import.xlsx
@@ -45,20 +45,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve">Création d'un nouveau document.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve">Champ 'document.reference' mis à jour.
+          <t xml:space="preserve">Document trouvé.
 </t>
         </r>
         <r>
@@ -84,33 +71,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve">Création d'une nouvelle version.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve">Champ 'version.name' mis à jour.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve">Champ 'version.date' mis à jour.
+          <t xml:space="preserve">Version trouvée.
 </t>
         </r>
         <r>
@@ -178,6 +139,19 @@
           <t xml:space="preserve">Erreur en écrivant le champ 'status.value'.
 </t>
         </r>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">Champ 'version.checkbox_o' mis à jour.
+</t>
+        </r>
       </text>
     </comment>
     <comment ref="A3" authorId="0">
@@ -205,20 +179,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve">Création d'un nouveau document.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve">Champ 'document.reference' mis à jour.
+          <t xml:space="preserve">Document trouvé.
 </t>
         </r>
         <r>
@@ -244,33 +205,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve">Création d'une nouvelle version.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve">Champ 'version.name' mis à jour.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve">Champ 'version.date' mis à jour.
+          <t xml:space="preserve">Version trouvée.
 </t>
         </r>
         <r>
@@ -336,6 +271,19 @@
             <u val="none"/>
           </rPr>
           <t xml:space="preserve">Erreur en écrivant le champ 'status.value'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <rFont val="Calibri"/>
+            <b val="false"/>
+            <i val="false"/>
+            <strike val="false"/>
+            <color rgb="FF000000"/>
+            <sz val="11"/>
+            <u val="none"/>
+          </rPr>
+          <t xml:space="preserve">Champ 'version.checkbox_o' mis à jour.
 </t>
         </r>
       </text>
@@ -896,7 +844,7 @@
       </c>
       <c r="N2" s="5" t="str">
         <f>CHAR(RANDBETWEEN(65, 90))</f>
-        <v>S</v>
+        <v>T</v>
       </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
@@ -954,7 +902,7 @@
       </c>
       <c r="N3" s="5" t="str">
         <f>CHAR(RANDBETWEEN(65, 90))</f>
-        <v>Q</v>
+        <v>A</v>
       </c>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>

--- a/public/uploads/GPEXE-Import.xlsx
+++ b/public/uploads/GPEXE-Import.xlsx
@@ -46,7 +46,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve">Document trouvé dans le MDR et rappatrié dans la série en cours.
+          <t xml:space="preserve">Document trouvé.
 </t>
         </r>
         <r>
@@ -316,7 +316,7 @@
     <t>04/09/2020 16:47:00</t>
   </si>
   <si>
-    <t>VAO</t>
+    <t>VAR</t>
   </si>
   <si>
     <t>Smahane Benaddi</t>

--- a/public/uploads/GPEXE-Import.xlsx
+++ b/public/uploads/GPEXE-Import.xlsx
@@ -7,9 +7,11 @@
     <workbookView activeTab="0" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId4"/>
+    <sheet name="owssvr" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="owssvr" localSheetId="0">'owssvr'!$A$1:$AG$3</definedName>
+  </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
@@ -18,10 +20,9 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>GPExe</author>
-    <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0">
+    <comment ref="A2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -33,155 +34,12 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve">Série trouvée.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve">Document trouvé.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve">Champ 'document.name' mis à jour.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve">Version trouvée.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve">Champ 'version.isRequired' mis à jour.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve">Champ 'status.value' mis à jour.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve">Erreur en écrivant le champ 'version.writer'.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve">Champ 'version.approver' mis à jour.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve">Champ 'version.scope' mis à jour.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve">Champ 'version.date' mis à jour.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve">Champ 'visa.vinci' mis à jour.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <rFont val="Calibri"/>
-            <b val="false"/>
-            <i val="false"/>
-            <strike val="false"/>
-            <color rgb="FF000000"/>
-            <sz val="11"/>
-            <u val="none"/>
-          </rPr>
-          <t xml:space="preserve">Champ 'visa.syctom' mis à jour.
+          <t xml:space="preserve">Ligne exclue : série non trouvée.
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="U2" authorId="1">
+    <comment ref="A3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -193,7 +51,7 @@
             <sz val="11"/>
             <u val="none"/>
           </rPr>
-          <t xml:space="preserve">Erreur en écrivant le champ 'version.writer'.
+          <t xml:space="preserve">Ligne exclue via l'instruction 'Exclude'.
 </t>
         </r>
       </text>
@@ -203,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>Natif</t>
   </si>
@@ -292,16 +150,25 @@
     <t>Ouvrage</t>
   </si>
   <si>
-    <t>string;#</t>
-  </si>
-  <si>
-    <t>IP-14-064-IN-D-PLE-C2-4162-B0.pdf</t>
-  </si>
-  <si>
-    <t>3685 KB</t>
-  </si>
-  <si>
-    <t>Charpente process – Structure C1 – NIV.+24.00 - Calepinage plancher files B2 à B6</t>
+    <t>Type d'élément</t>
+  </si>
+  <si>
+    <t>Chemin d'accès</t>
+  </si>
+  <si>
+    <t>NativeDocURL</t>
+  </si>
+  <si>
+    <t>XLSDocURL</t>
+  </si>
+  <si>
+    <t>&lt;a href=https://zone21.zone-b2b.com/sites/IP13/Z21NativeDoc/IP-14-064-HZ-P-LIS-C0-3625-A0.xlsm target='_blank' alt='Open in new window'&gt; &lt;Div align='left' &gt;&lt;img src='/_layouts/images/ICMPS.GIF' align='middle' border=0 style='height:16px;width:16px;' /&gt;&lt;/a&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>IP-14-064-IN-N-SCH-E4-3900-A0.pdf</t>
+  </si>
+  <si>
+    <t>Système de frappage chaudière - Liste de BUS signaux</t>
   </si>
   <si>
     <t>AVS</t>
@@ -313,13 +180,10 @@
     <t>LIVR</t>
   </si>
   <si>
-    <t>04/09/2020 16:47:00</t>
-  </si>
-  <si>
     <t>VAR</t>
   </si>
   <si>
-    <t>Smahane Benaddi</t>
+    <t>I.HZI</t>
   </si>
   <si>
     <t>AOP</t>
@@ -328,16 +192,13 @@
     <t>IN</t>
   </si>
   <si>
-    <t>PLE</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>Oui</t>
-  </si>
-  <si>
-    <t>EXE TX1</t>
+    <t>LIS</t>
+  </si>
+  <si>
+    <t>C0</t>
+  </si>
+  <si>
+    <t>R.GOENNER</t>
   </si>
   <si>
     <t>EXE</t>
@@ -346,19 +207,46 @@
     <t>TX 1</t>
   </si>
   <si>
-    <t>Mise à jour repérage, plinthes et réservations</t>
-  </si>
-  <si>
-    <t>17/08/2020 00:00:00</t>
-  </si>
-  <si>
-    <t>D01</t>
-  </si>
-  <si>
-    <t>D</t>
+    <t>première emission</t>
+  </si>
+  <si>
+    <t>P01</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
   <si>
     <t>UVE</t>
+  </si>
+  <si>
+    <t>Élément </t>
+  </si>
+  <si>
+    <t>sites/IP13/Espace Documents</t>
+  </si>
+  <si>
+    <t>https://zone21.zone-b2b.com/sites/IP13/Z21NativeDoc/IP-14-064-HZ-P-LIS-C0-3625-A0.xlsm</t>
+  </si>
+  <si>
+    <t>&lt;a href=https://zone21.zone-b2b.com/sites/IP13/Z21NativeDoc/IP-14-064-HZ-P-MOP-C0-3300-A0.docx target='_blank' alt='Open in new window'&gt; &lt;Div align='left' &gt;&lt;img src='/_layouts/images/ICMPS.GIF' align='middle' border=0 style='height:16px;width:16px;' /&gt;&lt;/a&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>IP-14-064-HZ-P-MOP-C0-3300-A0.pdf</t>
+  </si>
+  <si>
+    <t>Extracteur machefers - Système de lubrification - Manuel opératoire</t>
+  </si>
+  <si>
+    <t>NDF VISA</t>
+  </si>
+  <si>
+    <t>HZ</t>
+  </si>
+  <si>
+    <t>MOP</t>
+  </si>
+  <si>
+    <t>https://zone21.zone-b2b.com/sites/IP13/Z21NativeDoc/IP-14-064-HZ-P-MOP-C0-3300-A0.docx</t>
   </si>
 </sst>
 </file>
@@ -366,33 +254,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="4">
@@ -407,57 +286,65 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99CCFF"/>
+        <fgColor rgb="FFFF9191"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE591"/>
+        <fgColor rgb="FFC8C8C8"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FFFF0000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFF0000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFF0000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFFF0000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-      <protection hidden="false"/>
+  <cellXfs count="14">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="22" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="14" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="49" fillId="3" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="22" fillId="3" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="14" fillId="3" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -758,458 +645,343 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:IV3"/>
+  <dimension ref="A1:AG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A3" sqref="A3:Z3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="true" defaultRowHeight="12.75" defaultColWidth="9.140625" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="1.7109375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="36.5703125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="15.7109375" customWidth="true" style="0"/>
-    <col min="5" max="5" width="20.7109375" customWidth="true" style="0"/>
-    <col min="6" max="6" width="20" customWidth="true" style="0"/>
-    <col min="7" max="7" width="6.85546875" customWidth="true" style="0"/>
-    <col min="8" max="8" width="9.85546875" customWidth="true" style="0"/>
-    <col min="9" max="9" width="19.5703125" customWidth="true" style="0"/>
-    <col min="10" max="10" width="19.7109375" customWidth="true" style="0"/>
-    <col min="11" max="11" width="20.140625" customWidth="true" style="0"/>
-    <col min="12" max="12" width="22.85546875" customWidth="true" style="0"/>
-    <col min="13" max="13" width="21.28515625" customWidth="true" style="0"/>
-    <col min="14" max="14" width="17.42578125" customWidth="true" style="0"/>
-    <col min="15" max="15" width="22" customWidth="true" style="0"/>
-    <col min="16" max="16" width="20.140625" customWidth="true" style="0"/>
-    <col min="17" max="17" width="16.85546875" customWidth="true" style="0"/>
-    <col min="18" max="18" width="2.7109375" customWidth="true" style="0"/>
-    <col min="19" max="19" width="136.140625" customWidth="true" style="0"/>
-    <col min="20" max="20" width="85.42578125" customWidth="true" style="0"/>
-    <col min="21" max="21" width="21.42578125" customWidth="true" style="0"/>
-    <col min="22" max="22" width="7.5703125" customWidth="true" style="0"/>
-    <col min="23" max="23" width="18.5703125" customWidth="true" style="0"/>
-    <col min="24" max="24" width="20.28515625" customWidth="true" style="0"/>
-    <col min="25" max="25" width="2.7109375" customWidth="true" style="0"/>
-    <col min="26" max="26" width="19.5703125" customWidth="true" style="0"/>
-    <col min="27" max="27" width="15" customWidth="true" style="0"/>
-    <col min="28" max="28" width="16.28515625" customWidth="true" style="0"/>
-    <col min="29" max="29" width="44" customWidth="true" style="0"/>
+    <col min="1" max="1" width="4" customWidth="true" style="0"/>
+    <col min="2" max="2" width="4" customWidth="true" style="0"/>
+    <col min="3" max="3" width="34.85546875" customWidth="true" style="0"/>
+    <col min="4" max="4" width="17" customWidth="true" style="0"/>
+    <col min="5" max="5" width="81.140625" customWidth="true" style="0"/>
+    <col min="6" max="6" width="20.85546875" customWidth="true" style="0"/>
+    <col min="7" max="7" width="9" customWidth="true" style="0"/>
+    <col min="8" max="8" width="10.28515625" customWidth="true" style="0"/>
+    <col min="9" max="9" width="15.7109375" customWidth="true" style="0"/>
+    <col min="10" max="10" width="20.7109375" customWidth="true" style="0"/>
+    <col min="11" max="11" width="20.7109375" customWidth="true" style="0"/>
+    <col min="12" max="12" width="19.85546875" customWidth="true" style="0"/>
+    <col min="13" max="13" width="21.5703125" customWidth="true" style="0"/>
+    <col min="14" max="14" width="18.5703125" customWidth="true" style="0"/>
+    <col min="15" max="15" width="23" customWidth="true" style="0"/>
+    <col min="16" max="16" width="21" customWidth="true" style="0"/>
+    <col min="17" max="17" width="18.140625" customWidth="true" style="0"/>
+    <col min="18" max="18" width="81.140625" customWidth="true" style="0"/>
+    <col min="19" max="19" width="81.140625" customWidth="true" style="0"/>
+    <col min="20" max="20" width="81.140625" customWidth="true" style="0"/>
+    <col min="21" max="21" width="18.7109375" customWidth="true" style="0"/>
+    <col min="22" max="22" width="8.5703125" customWidth="true" style="0"/>
+    <col min="23" max="23" width="16.5703125" customWidth="true" style="0"/>
+    <col min="24" max="24" width="21" customWidth="true" style="0"/>
+    <col min="25" max="25" width="81.140625" customWidth="true" style="0"/>
+    <col min="26" max="26" width="19.7109375" customWidth="true" style="0"/>
+    <col min="27" max="27" width="16.140625" customWidth="true" style="0"/>
+    <col min="28" max="28" width="17.42578125" customWidth="true" style="0"/>
+    <col min="29" max="29" width="42.140625" customWidth="true" style="0"/>
+    <col min="30" max="30" width="17.28515625" customWidth="true" style="0"/>
+    <col min="31" max="31" width="27.42578125" customWidth="true" style="0"/>
+    <col min="32" max="32" width="81.140625" customWidth="true" style="0"/>
+    <col min="33" max="33" width="81.140625" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:256" customHeight="1" ht="12.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:33">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
-      <c r="BI1" s="1"/>
-      <c r="BJ1" s="1"/>
-      <c r="BK1" s="1"/>
-      <c r="BL1" s="1"/>
-      <c r="BM1" s="1"/>
-      <c r="BN1" s="1"/>
-      <c r="BO1" s="1"/>
-      <c r="BP1" s="1"/>
-      <c r="BQ1" s="1"/>
-      <c r="BR1" s="1"/>
-      <c r="BS1" s="1"/>
-      <c r="BT1" s="1"/>
-      <c r="BU1" s="1"/>
-      <c r="BV1" s="1"/>
-      <c r="BW1" s="1"/>
-      <c r="BX1" s="1"/>
-      <c r="BY1" s="1"/>
-      <c r="BZ1" s="1"/>
-      <c r="CA1" s="1"/>
-      <c r="CB1" s="1"/>
-      <c r="CC1" s="1"/>
-      <c r="CD1" s="1"/>
-      <c r="CE1" s="1"/>
-      <c r="CF1" s="1"/>
-      <c r="CG1" s="1"/>
-      <c r="CH1" s="1"/>
-      <c r="CI1" s="1"/>
-      <c r="CJ1" s="1"/>
-      <c r="CK1" s="1"/>
-      <c r="CL1" s="1"/>
-      <c r="CM1" s="1"/>
-      <c r="CN1" s="1"/>
-      <c r="CO1" s="1"/>
-      <c r="CP1" s="1"/>
-      <c r="CQ1" s="1"/>
-      <c r="CR1" s="1"/>
-      <c r="CS1" s="1"/>
-      <c r="CT1" s="1"/>
-      <c r="CU1" s="1"/>
-      <c r="CV1" s="1"/>
-      <c r="CW1" s="1"/>
-      <c r="CX1" s="1"/>
-      <c r="CY1" s="1"/>
-      <c r="CZ1" s="1"/>
-      <c r="DA1" s="1"/>
-      <c r="DB1" s="1"/>
-      <c r="DC1" s="1"/>
-      <c r="DD1" s="1"/>
-      <c r="DE1" s="1"/>
-      <c r="DF1" s="1"/>
-      <c r="DG1" s="1"/>
-      <c r="DH1" s="1"/>
-      <c r="DI1" s="1"/>
-      <c r="DJ1" s="1"/>
-      <c r="DK1" s="1"/>
-      <c r="DL1" s="1"/>
-      <c r="DM1" s="1"/>
-      <c r="DN1" s="1"/>
-      <c r="DO1" s="1"/>
-      <c r="DP1" s="1"/>
-      <c r="DQ1" s="1"/>
-      <c r="DR1" s="1"/>
-      <c r="DS1" s="1"/>
-      <c r="DT1" s="1"/>
-      <c r="DU1" s="1"/>
-      <c r="DV1" s="1"/>
-      <c r="DW1" s="1"/>
-      <c r="DX1" s="1"/>
-      <c r="DY1" s="1"/>
-      <c r="DZ1" s="1"/>
-      <c r="EA1" s="1"/>
-      <c r="EB1" s="1"/>
-      <c r="EC1" s="1"/>
-      <c r="ED1" s="1"/>
-      <c r="EE1" s="1"/>
-      <c r="EF1" s="1"/>
-      <c r="EG1" s="1"/>
-      <c r="EH1" s="1"/>
-      <c r="EI1" s="1"/>
-      <c r="EJ1" s="1"/>
-      <c r="EK1" s="1"/>
-      <c r="EL1" s="1"/>
-      <c r="EM1" s="1"/>
-      <c r="EN1" s="1"/>
-      <c r="EO1" s="1"/>
-      <c r="EP1" s="1"/>
-      <c r="EQ1" s="1"/>
-      <c r="ER1" s="1"/>
-      <c r="ES1" s="1"/>
-      <c r="ET1" s="1"/>
-      <c r="EU1" s="1"/>
-      <c r="EV1" s="1"/>
-      <c r="EW1" s="1"/>
-      <c r="EX1" s="1"/>
-      <c r="EY1" s="1"/>
-      <c r="EZ1" s="1"/>
-      <c r="FA1" s="1"/>
-      <c r="FB1" s="1"/>
-      <c r="FC1" s="1"/>
-      <c r="FD1" s="1"/>
-      <c r="FE1" s="1"/>
-      <c r="FF1" s="1"/>
-      <c r="FG1" s="1"/>
-      <c r="FH1" s="1"/>
-      <c r="FI1" s="1"/>
-      <c r="FJ1" s="1"/>
-      <c r="FK1" s="1"/>
-      <c r="FL1" s="1"/>
-      <c r="FM1" s="1"/>
-      <c r="FN1" s="1"/>
-      <c r="FO1" s="1"/>
-      <c r="FP1" s="1"/>
-      <c r="FQ1" s="1"/>
-      <c r="FR1" s="1"/>
-      <c r="FS1" s="1"/>
-      <c r="FT1" s="1"/>
-      <c r="FU1" s="1"/>
-      <c r="FV1" s="1"/>
-      <c r="FW1" s="1"/>
-      <c r="FX1" s="1"/>
-      <c r="FY1" s="1"/>
-      <c r="FZ1" s="1"/>
-      <c r="GA1" s="1"/>
-      <c r="GB1" s="1"/>
-      <c r="GC1" s="1"/>
-      <c r="GD1" s="1"/>
-      <c r="GE1" s="1"/>
-      <c r="GF1" s="1"/>
-      <c r="GG1" s="1"/>
-      <c r="GH1" s="1"/>
-      <c r="GI1" s="1"/>
-      <c r="GJ1" s="1"/>
-      <c r="GK1" s="1"/>
-      <c r="GL1" s="1"/>
-      <c r="GM1" s="1"/>
-      <c r="GN1" s="1"/>
-      <c r="GO1" s="1"/>
-      <c r="GP1" s="1"/>
-      <c r="GQ1" s="1"/>
-      <c r="GR1" s="1"/>
-      <c r="GS1" s="1"/>
-      <c r="GT1" s="1"/>
-      <c r="GU1" s="1"/>
-      <c r="GV1" s="1"/>
-      <c r="GW1" s="1"/>
-      <c r="GX1" s="1"/>
-      <c r="GY1" s="1"/>
-      <c r="GZ1" s="1"/>
-      <c r="HA1" s="1"/>
-      <c r="HB1" s="1"/>
-      <c r="HC1" s="1"/>
-      <c r="HD1" s="1"/>
-      <c r="HE1" s="1"/>
-      <c r="HF1" s="1"/>
-      <c r="HG1" s="1"/>
-      <c r="HH1" s="1"/>
-      <c r="HI1" s="1"/>
-      <c r="HJ1" s="1"/>
-      <c r="HK1" s="1"/>
-      <c r="HL1" s="1"/>
-      <c r="HM1" s="1"/>
-      <c r="HN1" s="1"/>
-      <c r="HO1" s="1"/>
-      <c r="HP1" s="1"/>
-      <c r="HQ1" s="1"/>
-      <c r="HR1" s="1"/>
-      <c r="HS1" s="1"/>
-      <c r="HT1" s="1"/>
-      <c r="HU1" s="1"/>
-      <c r="HV1" s="1"/>
-      <c r="HW1" s="1"/>
-      <c r="HX1" s="1"/>
-      <c r="HY1" s="1"/>
-      <c r="HZ1" s="1"/>
-      <c r="IA1" s="1"/>
-      <c r="IB1" s="1"/>
-      <c r="IC1" s="1"/>
-      <c r="ID1" s="1"/>
-      <c r="IE1" s="1"/>
-      <c r="IF1" s="1"/>
-      <c r="IG1" s="1"/>
-      <c r="IH1" s="1"/>
-      <c r="II1" s="1"/>
-      <c r="IJ1" s="1"/>
-      <c r="IK1" s="1"/>
-      <c r="IL1" s="1"/>
-      <c r="IM1" s="1"/>
-      <c r="IN1" s="1"/>
-      <c r="IO1" s="1"/>
-      <c r="IP1" s="1"/>
-      <c r="IQ1" s="1"/>
-      <c r="IR1" s="1"/>
-      <c r="IS1" s="1"/>
-      <c r="IT1" s="1"/>
-      <c r="IU1" s="1"/>
-      <c r="IV1" s="1"/>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:256" customHeight="1" ht="12.75">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
+    <row r="2" spans="1:33">
+      <c r="A2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="D2" s="2">
+        <v>231807</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2" t="s">
+      <c r="G2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="H2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="I2" s="5">
+        <v>43382.608217593</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="L2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="M2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="N2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="O2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="P2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
+      <c r="Q2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="R2" s="7"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
       <c r="U2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z2" s="6">
+        <v>44088</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG2" s="1"/>
+    </row>
+    <row r="3" spans="1:33" s="0" customFormat="1">
+      <c r="A3" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="8">
+        <v>1778453</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="I3" s="11">
+        <v>44113.448298611</v>
+      </c>
+      <c r="J3" s="12"/>
+      <c r="K3" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q3" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="R3" s="13"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="V3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="X2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" s="2" t="s">
+      <c r="W3" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="X3" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="Z3" s="12">
+        <v>44113</v>
+      </c>
+      <c r="AA3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AB3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AC3" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="AD3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG3" s="1"/>
     </row>
-    <row r="3" spans="1:256">
-      <c r="E3"/>
+    <row r="4" spans="1:33">
+      <c r="A4"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="true" formatColumns="true" formatRows="true" insertColumns="true" insertRows="true" insertHyperlinks="true" deleteColumns="true" deleteRows="true" selectLockedCells="false" sort="true" autoFilter="true" pivotTables="true" selectUnlockedCells="false"/>
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId_hyperlink_1"/>
+    <hyperlink ref="C3" r:id="rId_hyperlink_2"/>
   </hyperlinks>
-  <printOptions gridLines="true" gridLinesSet="true"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader>&amp;A</oddHeader>
-    <oddFooter>Page &amp;P</oddFooter>
-    <evenHeader>&amp;A</evenHeader>
-    <evenFooter>Page &amp;P</evenFooter>
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
     <firstHeader/>
     <firstFooter/>
   </headerFooter>
